--- a/策划/kallen/逃出教室-关卡整理.xlsx
+++ b/策划/kallen/逃出教室-关卡整理.xlsx
@@ -1,40 +1,385 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="24795" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="采用的关卡" sheetId="1" r:id="rId1"/>
+    <sheet name="被放弃的关卡" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门上有个板擦，点击板擦让板擦掉下，再点击门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水桶（板擦）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门上有个香蕉皮，点击让香蕉皮掉下，再找到扫帚并使用，最后再打开门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生3个，自己1人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉皮，扫帚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功逃出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被老师抓住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被水桶砸中途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被香蕉皮摔倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结局编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶教学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度上升，开启2
+个场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度上升，开启3
+个场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度梯度max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>1-11</t>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t>1-13</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>老师1人（正对黑板），学生3个，自己1人</t>
+  </si>
+  <si>
+    <t>老师1人（正对黑板），学生3个，自己1人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.教室角落有个储物柜。
+2.教室墙上有电闸的开关门。
+3.找到盆栽下的钥匙，打开电闸门。
+4.关闭电闸，教室变黑，逃出。
+5.直接逃出失败，点击老师失败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药丸、储物柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电闸门板，储物柜，钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆气打破教室
+大门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃的原因：这俩个关卡材料很多，也比较复杂，前面只有一个区域的情况下，尽量减少复杂的界面，可以在后期考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师1人（背对黑板），学生3个，自己1人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>点击门口直接成功</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（第一个我还是觉得太简单了）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.教室角落有个储物柜。
+2.储物柜没有任何东西
+3.滑动储物柜，发现暗门，这次的储物柜有轮子。（暗示）
+4.暗门中有一个药丸。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（药丸变身这个 还可以再考虑一下，自己感觉不是最佳的方法，但是说不出来更好的）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5.使用药丸，打破墙壁，出门。
+6.直接点击大门失败，点击老师失败。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生3个，自己1人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃出的目标都确定为一个，不要一会是窗，一会是大门，不管是几张地图，逃出的们永远是一个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.教室的一角有电风扇，在老师身后。
+2.找到放在讲台的遥控器。
+3.使用遥控器，弹出界面，选择电风扇吹的方向。（选择轻风、强风、中风）
+4.选择轻风，被老师抓住。
+5.选择中风，吹走老师头发，老师去追头发，逃出成功。
+6.选择强风，把老师吹到墙壁上，受伤，被警察带走。
+7.点击门直接失败
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电风扇，遥控器，选择风速
+的界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被警察带走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -42,23 +387,295 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>255959</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>18913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="123825"/>
+          <a:ext cx="9733334" cy="1095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236914</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="1362075"/>
+          <a:ext cx="9695239" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +960,564 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="2" customWidth="1"/>
+    <col min="5" max="6" width="15.125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="13.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" s="21" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" s="21" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="132" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G3:H7"/>
+    <mergeCell ref="G8:H10"/>
+    <mergeCell ref="G14:H16"/>
+    <mergeCell ref="G17:H19"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G11:H13"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B18:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:M20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>